--- a/data/georgia_census/imereti/wyaltubo/age_dependency.xlsx
+++ b/data/georgia_census/imereti/wyaltubo/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B31F5C51-7C67-4C96-902C-2406C77F3C9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{790CE4CB-98B2-4ABB-8F40-02C963CEE5A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68617AEA-CCD8-417B-9A4C-F14EAA45C9C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31755D5E-E966-4742-B21A-1CAA8D366D84}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C60375D-85B4-499E-9984-5A0A90F34AB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B910049-3330-454A-8972-4640827DD4D8}"/>
 </file>